--- a/ope.ed.gov/2007/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2007.xlsx
+++ b/ope.ed.gov/2007/hate-crimes-noncampus-virginia-colleges-and-universities-crime-2007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Hate_Crimes_Noncampus" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="hate-crimes-noncampus-virginia-" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Hate Crimes - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,88 +31,88 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Murder/Non-negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Race</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Religion</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Gender</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Disability</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible -Race</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Religion</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Gender</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Disability</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible - Ethnicity/National origin</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Murder/Non-Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Race</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Religion</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Gender</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Disability</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible -Race</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Religion</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Gender</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Disability</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Robbery</t>
@@ -127,7 +124,7 @@
     <t>Robbery - Religion</t>
   </si>
   <si>
-    <t>Robbery - Sexual orientation</t>
+    <t>Robbery - Sexual Orientation</t>
   </si>
   <si>
     <t>Robbery - Gender</t>
@@ -136,28 +133,28 @@
     <t>Robbery - Disability</t>
   </si>
   <si>
-    <t>Robbery - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Aggravated assault</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Race</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Religion</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Gender</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Disability</t>
-  </si>
-  <si>
-    <t>Aggravated assault - Ethnicity/National origin</t>
+    <t>Robbery - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Aggravated Assault</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Race</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Religion</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Gender</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Disability</t>
+  </si>
+  <si>
+    <t>Aggravated Assault - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -169,7 +166,7 @@
     <t>Burglary - Religion</t>
   </si>
   <si>
-    <t>Burglary - Sexual orientation</t>
+    <t>Burglary - Sexual Orientation</t>
   </si>
   <si>
     <t>Burglary - Gender</t>
@@ -178,28 +175,28 @@
     <t>Burglary - Disability</t>
   </si>
   <si>
-    <t>Burglary - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Race</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Religion</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Gender</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Disability</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft - Ethnicity/National origin</t>
+    <t>Burglary - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Race</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Religion</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Gender</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Disability</t>
+  </si>
+  <si>
+    <t>Motor Vehicle Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Arson</t>
@@ -211,7 +208,7 @@
     <t>Arson - Religion</t>
   </si>
   <si>
-    <t>Arson - Sexual orientation</t>
+    <t>Arson - Sexual Orientation</t>
   </si>
   <si>
     <t>Arson - Gender</t>
@@ -220,49 +217,49 @@
     <t>Arson - Disability</t>
   </si>
   <si>
-    <t>Arson - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Simple assault</t>
-  </si>
-  <si>
-    <t>Simple assault - Race</t>
-  </si>
-  <si>
-    <t>Simple assault - Religion</t>
-  </si>
-  <si>
-    <t>Simple assault - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Simple assault - Gender</t>
-  </si>
-  <si>
-    <t>Simple assault - Disability</t>
-  </si>
-  <si>
-    <t>Simple assault - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Larceny-theft</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Race</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Religion</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Gender</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Disability</t>
-  </si>
-  <si>
-    <t>Larceny-theft - Ethnicity/National origin</t>
+    <t>Arson - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Simple Assault - Race</t>
+  </si>
+  <si>
+    <t>Simple Assault - Religion</t>
+  </si>
+  <si>
+    <t>Simple Assault - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Simple Assault - Gender</t>
+  </si>
+  <si>
+    <t>Simple Assault - Disability</t>
+  </si>
+  <si>
+    <t>Simple Assault - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Larceny-Theft</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Race</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Religion</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Gender</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Disability</t>
+  </si>
+  <si>
+    <t>Larceny-Theft - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Intimidation</t>
@@ -274,7 +271,7 @@
     <t>Intimidation - Religion</t>
   </si>
   <si>
-    <t>Intimidation - Sexual orientation</t>
+    <t>Intimidation - Sexual Orientation</t>
   </si>
   <si>
     <t>Intimidation - Gender</t>
@@ -283,28 +280,28 @@
     <t>Intimidation - Disability</t>
   </si>
   <si>
-    <t>Intimidation - Ethnicity/National origin</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Race</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Religion</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Sexual orientation</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Gender</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Disability</t>
-  </si>
-  <si>
-    <t>Destruction/damage/ vandalism of property - Ethnicity/National origin</t>
+    <t>Intimidation - Ethnicity/National Origin</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Race</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Religion</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Gender</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Disability</t>
+  </si>
+  <si>
+    <t>Destruction/Damage/Vandalism of Property - Ethnicity/National Origin</t>
   </si>
   <si>
     <t>Argosy University-Washington DC</t>
@@ -703,298 +700,343 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="P1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="Q1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="R1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="S1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="T1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="U1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="V1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="W1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="X1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="Y1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="Z1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="AA1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="AB1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="AC1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="AD1">
+        <v>29</v>
+      </c>
+      <c t="s" s="1" r="AE1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="AF1">
+        <v>31</v>
+      </c>
+      <c t="s" s="1" r="AG1">
+        <v>32</v>
+      </c>
+      <c t="s" s="1" r="AH1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="AI1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="AJ1">
+        <v>35</v>
+      </c>
+      <c t="s" s="1" r="AK1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="AL1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="AM1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="AN1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="AO1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="AP1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="AQ1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="AR1">
+        <v>43</v>
+      </c>
+      <c t="s" s="1" r="AS1">
+        <v>44</v>
+      </c>
+      <c t="s" s="1" r="AT1">
+        <v>45</v>
+      </c>
+      <c t="s" s="1" r="AU1">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="AV1">
+        <v>47</v>
+      </c>
+      <c t="s" s="1" r="AW1">
+        <v>48</v>
+      </c>
+      <c t="s" s="1" r="AX1">
+        <v>49</v>
+      </c>
+      <c t="s" s="1" r="AY1">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="AZ1">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="BA1">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="BB1">
+        <v>53</v>
+      </c>
+      <c t="s" s="1" r="BC1">
+        <v>54</v>
+      </c>
+      <c t="s" s="1" r="BD1">
+        <v>55</v>
+      </c>
+      <c t="s" s="1" r="BE1">
+        <v>56</v>
+      </c>
+      <c t="s" s="1" r="BF1">
+        <v>57</v>
+      </c>
+      <c t="s" s="1" r="BG1">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="BH1">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="BI1">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="BJ1">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="BK1">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="BL1">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="BM1">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="BN1">
+        <v>65</v>
+      </c>
+      <c t="s" s="1" r="BO1">
+        <v>66</v>
+      </c>
+      <c t="s" s="1" r="BP1">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="BQ1">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="BR1">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="BS1">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="BT1">
+        <v>71</v>
+      </c>
+      <c t="s" s="1" r="BU1">
+        <v>72</v>
+      </c>
+      <c t="s" s="1" r="BV1">
+        <v>73</v>
+      </c>
+      <c t="s" s="1" r="BW1">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="BX1">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="BY1">
+        <v>76</v>
+      </c>
+      <c t="s" s="1" r="BZ1">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="CA1">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="CB1">
+        <v>79</v>
+      </c>
+      <c t="s" s="1" r="CC1">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="CD1">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="CE1">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="CF1">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="CG1">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="CH1">
+        <v>85</v>
+      </c>
+      <c t="s" s="1" r="CI1">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="CJ1">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="CK1">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="CL1">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="CM1">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="CN1">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="CO1">
+        <v>92</v>
+      </c>
+      <c t="s" s="1" r="CP1">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="CQ1">
+        <v>94</v>
+      </c>
+      <c t="s" s="1" r="CR1">
+        <v>95</v>
+      </c>
+      <c t="s" s="1" r="CS1">
+        <v>96</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2007.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="P2">
-        <v>16</v>
-      </c>
-      <c t="s" s="1" r="Q2">
-        <v>17</v>
-      </c>
-      <c t="s" s="1" r="R2">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="S2">
-        <v>19</v>
-      </c>
-      <c t="s" s="1" r="T2">
-        <v>20</v>
-      </c>
-      <c t="s" s="1" r="U2">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="V2">
-        <v>22</v>
-      </c>
-      <c t="s" s="1" r="W2">
-        <v>23</v>
-      </c>
-      <c t="s" s="1" r="X2">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="Y2">
-        <v>25</v>
-      </c>
-      <c t="s" s="1" r="Z2">
-        <v>26</v>
-      </c>
-      <c t="s" s="1" r="AA2">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="AB2">
-        <v>28</v>
-      </c>
-      <c t="s" s="1" r="AC2">
-        <v>29</v>
-      </c>
-      <c t="s" s="1" r="AD2">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="AE2">
-        <v>31</v>
-      </c>
-      <c t="s" s="1" r="AF2">
-        <v>32</v>
-      </c>
-      <c t="s" s="1" r="AG2">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="AH2">
-        <v>34</v>
-      </c>
-      <c t="s" s="1" r="AI2">
-        <v>35</v>
-      </c>
-      <c t="s" s="1" r="AJ2">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="AK2">
-        <v>37</v>
-      </c>
-      <c t="s" s="1" r="AL2">
-        <v>38</v>
-      </c>
-      <c t="s" s="1" r="AM2">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="AN2">
-        <v>40</v>
-      </c>
-      <c t="s" s="1" r="AO2">
-        <v>41</v>
-      </c>
-      <c t="s" s="1" r="AP2">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="AQ2">
-        <v>43</v>
-      </c>
-      <c t="s" s="1" r="AR2">
-        <v>44</v>
-      </c>
-      <c t="s" s="1" r="AS2">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="AT2">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="AU2">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="AV2">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="AW2">
-        <v>49</v>
-      </c>
-      <c t="s" s="1" r="AX2">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="AY2">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="AZ2">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="BA2">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="BB2">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="BC2">
-        <v>55</v>
-      </c>
-      <c t="s" s="1" r="BD2">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="BE2">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="BF2">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="BG2">
-        <v>59</v>
-      </c>
-      <c t="s" s="1" r="BH2">
-        <v>60</v>
-      </c>
-      <c t="s" s="1" r="BI2">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="BJ2">
-        <v>62</v>
-      </c>
-      <c t="s" s="1" r="BK2">
-        <v>63</v>
-      </c>
-      <c t="s" s="1" r="BL2">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="BM2">
-        <v>65</v>
-      </c>
-      <c t="s" s="1" r="BN2">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="BO2">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="BP2">
-        <v>68</v>
-      </c>
-      <c t="s" s="1" r="BQ2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="BR2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="BS2">
-        <v>71</v>
-      </c>
-      <c t="s" s="1" r="BT2">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="BU2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="BV2">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="BW2">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="BX2">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="BY2">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="BZ2">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="CA2">
-        <v>79</v>
-      </c>
-      <c t="s" s="1" r="CB2">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="CC2">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="CD2">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="CE2">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="CF2">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="CG2">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="CH2">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="CI2">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="CJ2">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="CK2">
-        <v>89</v>
-      </c>
-      <c t="s" s="1" r="CL2">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="CM2">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="CN2">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="CO2">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="CP2">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="CQ2">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="CR2">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="CS2">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1007.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="U2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AB2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AI2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AP2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="AW2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BD2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BK2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="BR2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1002,19 +1044,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B3">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F3">
-        <v>1007.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -1052,19 +1094,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F4">
-        <v>865.0</v>
+        <v>1677.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -1105,13 +1147,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F5">
         <v>1677.0</v>
@@ -1155,13 +1197,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F6">
         <v>1677.0</v>
@@ -1202,19 +1244,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B7">
-        <v>449931.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F7">
-        <v>1677.0</v>
+        <v>4084.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1252,19 +1294,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231536.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F8">
-        <v>4084.0</v>
+        <v>1541.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -1302,19 +1344,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F9">
-        <v>1541.0</v>
+        <v>516.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -1352,19 +1394,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231828.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F10">
-        <v>516.0</v>
+        <v>4884.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -1402,19 +1444,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B11">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F11">
-        <v>4884.0</v>
+        <v>7795.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -1452,19 +1494,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B12">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F12">
-        <v>7795.0</v>
+        <v>4016.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -1502,19 +1544,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B13">
-        <v>231882.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F13">
-        <v>4016.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1552,19 +1594,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F14">
-        <v>725.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1602,19 +1644,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B15">
-        <v>442806.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F15">
-        <v>645.0</v>
+        <v>259.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1652,19 +1694,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B16">
-        <v>442310.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F16">
-        <v>259.0</v>
+        <v>1233.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1702,19 +1744,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F17">
-        <v>1233.0</v>
+        <v>30276.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1752,19 +1794,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F18">
-        <v>30276.0</v>
+        <v>1122.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1802,19 +1844,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F19">
-        <v>1122.0</v>
+        <v>5658.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1852,19 +1894,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232265.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F20">
-        <v>5658.0</v>
+        <v>17918.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1902,19 +1944,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F21">
-        <v>17918.0</v>
+        <v>971.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1952,19 +1994,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F22">
-        <v>971.0</v>
+        <v>27068.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2002,19 +2044,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F23">
-        <v>27068.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -2052,19 +2094,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F24">
-        <v>4727.0</v>
+        <v>5655.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -2102,19 +2144,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232575.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F25">
-        <v>5655.0</v>
+        <v>3609.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2152,19 +2194,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F26">
-        <v>3609.0</v>
+        <v>3017.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2202,19 +2244,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F27">
-        <v>3017.0</v>
+        <v>4586.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2252,19 +2294,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F28">
-        <v>4586.0</v>
+        <v>6155.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2302,19 +2344,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B29">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F29">
-        <v>6155.0</v>
+        <v>41266.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2355,13 +2397,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D30">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F30">
         <v>41266.0</v>
@@ -2405,13 +2447,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D31">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F31">
         <v>41266.0</v>
@@ -2455,13 +2497,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D32">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F32">
         <v>41266.0</v>
@@ -2505,13 +2547,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D33">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F33">
         <v>41266.0</v>
@@ -2555,13 +2597,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D34">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F34">
         <v>41266.0</v>
@@ -2602,19 +2644,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D35">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F35">
-        <v>41266.0</v>
+        <v>22287.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2652,19 +2694,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232982.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F36">
-        <v>22287.0</v>
+        <v>4674.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2702,19 +2744,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F37">
-        <v>4674.0</v>
+        <v>9122.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2752,19 +2794,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F38">
-        <v>9122.0</v>
+        <v>656.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2802,19 +2844,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233301.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F39">
-        <v>656.0</v>
+        <v>3393.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2852,19 +2894,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B40">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F40">
-        <v>3393.0</v>
+        <v>5255.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2902,19 +2944,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F41">
-        <v>5255.0</v>
+        <v>3716.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2952,19 +2994,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B42">
-        <v>233648.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F42">
-        <v>3716.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -3002,19 +3044,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B43">
-        <v>440341.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F43">
-        <v>1648.0</v>
+        <v>9368.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -3052,19 +3094,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B44">
-        <v>233754.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F44">
-        <v>9368.0</v>
+        <v>5001.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -3102,19 +3144,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B45">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F45">
-        <v>5001.0</v>
+        <v>4324.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -3152,19 +3194,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F46">
-        <v>4324.0</v>
+        <v>24257.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -3202,19 +3244,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B47">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F47">
-        <v>24257.0</v>
+        <v>31700.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -3255,13 +3297,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D48">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F48">
         <v>31700.0</v>
@@ -3302,19 +3344,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B49">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F49">
-        <v>31700.0</v>
+        <v>224.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -3352,19 +3394,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B50">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F50">
-        <v>224.0</v>
+        <v>1378.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -3402,19 +3444,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B51">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F51">
-        <v>1378.0</v>
+        <v>29898.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -3452,19 +3494,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B52">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F52">
-        <v>29898.0</v>
+        <v>4720.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -3502,19 +3544,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F53">
-        <v>4720.0</v>
+        <v>1535.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -3552,19 +3594,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234164.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F54">
-        <v>1535.0</v>
+        <v>8653.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -3602,19 +3644,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F55">
-        <v>8653.0</v>
+        <v>2181.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3652,19 +3694,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B56">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F56">
-        <v>2181.0</v>
+        <v>3072.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3694,56 +3736,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="BR56">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c s="1" r="A57">
-        <v>2007.0</v>
-      </c>
-      <c s="1" r="B57">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C57">
-        <v>206</v>
-      </c>
-      <c s="1" r="D57">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E57">
-        <v>207</v>
-      </c>
-      <c s="1" r="F57">
-        <v>3072.0</v>
-      </c>
-      <c s="1" r="G57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="U57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AB57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AI57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AP57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="AW57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BD57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BK57">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="BR57">
         <v>0.0</v>
       </c>
     </row>
